--- a/biology/Zoologie/Cleveland_Metroparks_Zoo/Cleveland_Metroparks_Zoo.xlsx
+++ b/biology/Zoologie/Cleveland_Metroparks_Zoo/Cleveland_Metroparks_Zoo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cleveland Metroparks Zoo est un zoo situé à Cleveland, dans l'État de l'Ohio aux États-Unis. Le zoo est de 165 acres (66,8 ha) et est divisé en différentes zones: la forêt tropicale, la savane africaine, du Nord Trek, l'aventure australienne, et les primates, félins, et l'aquarium. Le Zoo Metroparks a la plus grande collection de primates en Amérique du Nord. Il est doté de Monkey Island, une île de béton où une population importante de singes Colobus sont conservés dans de libre-gamme conditions. Le Zoo de Cleveland et sa forêt tropicale accueillent plus de 3000 animaux (avec plus de 80 espèces protégées). Le zoo est une partie du Cleveland Metroparks système.
